--- a/expenses.xlsx
+++ b/expenses.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="16">
   <si>
     <t>ID</t>
   </si>
@@ -43,6 +43,18 @@
     <t>食</t>
   </si>
   <si>
+    <t>晚餐</t>
+  </si>
+  <si>
+    <t>2023-05-31</t>
+  </si>
+  <si>
+    <t>5月薪水</t>
+  </si>
+  <si>
+    <t>2023-06-01</t>
+  </si>
+  <si>
     <t>早餐</t>
   </si>
   <si>
@@ -50,9 +62,6 @@
   </si>
   <si>
     <t>薪水</t>
-  </si>
-  <si>
-    <t>晚餐</t>
   </si>
 </sst>
 </file>
@@ -384,7 +393,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -415,7 +424,7 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
@@ -435,7 +444,7 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="B3" t="s">
         <v>7</v>
@@ -444,33 +453,113 @@
         <v>8</v>
       </c>
       <c r="D3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E3" t="s">
         <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4">
+        <v>21</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4">
+        <v>-200</v>
+      </c>
+      <c r="E4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5">
+        <v>22</v>
+      </c>
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5">
+        <v>100</v>
+      </c>
+      <c r="E5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6">
         <v>35</v>
       </c>
-      <c r="B4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4">
+      <c r="B6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6">
         <v>-400</v>
       </c>
-      <c r="E4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" t="s">
-        <v>10</v>
+      <c r="E6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7">
+        <v>36</v>
+      </c>
+      <c r="B7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7">
+        <v>-20</v>
+      </c>
+      <c r="E7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8">
+        <v>37</v>
+      </c>
+      <c r="B8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8">
+        <v>1000</v>
+      </c>
+      <c r="E8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/expenses.xlsx
+++ b/expenses.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="12">
   <si>
     <t>ID</t>
   </si>
@@ -37,22 +37,19 @@
     <t>Budget</t>
   </si>
   <si>
-    <t>76</t>
-  </si>
-  <si>
-    <t>食</t>
-  </si>
-  <si>
-    <t>早餐</t>
+    <t>234</t>
+  </si>
+  <si>
+    <t>住</t>
+  </si>
+  <si>
+    <t>1231</t>
   </si>
   <si>
     <t>2023/06/02</t>
   </si>
   <si>
-    <t>薪水</t>
-  </si>
-  <si>
-    <t>晚餐</t>
+    <t>行</t>
   </si>
 </sst>
 </file>
@@ -384,7 +381,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -415,7 +412,7 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
@@ -424,7 +421,7 @@
         <v>8</v>
       </c>
       <c r="D2">
-        <v>-200</v>
+        <v>-23</v>
       </c>
       <c r="E2" t="s">
         <v>9</v>
@@ -435,41 +432,21 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="B3" t="s">
         <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D3">
-        <v>100</v>
+        <v>-23</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4">
-        <v>35</v>
-      </c>
-      <c r="B4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4">
-        <v>-400</v>
-      </c>
-      <c r="E4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" t="s">
         <v>10</v>
       </c>
     </row>
